--- a/params/survival_calculations.xlsx
+++ b/params/survival_calculations.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\david\anus\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A32D67-F0DC-4A35-A948-46BEA6A842C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B14A4-6C8A-495B-992A-BF4F55747397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B2463B9-C6EC-43DB-B9D6-A83A1ACD54A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2B2463B9-C6EC-43DB-B9D6-A83A1ACD54A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="old" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Age</t>
   </si>
@@ -96,6 +97,51 @@
   </si>
   <si>
     <t>Probabilities (using survival rates * HR)</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>Anus, anal canal, anorectum 5-year survival rate (SEER)</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>Interpolated rates using linear trend with middle points of each interval (rate(n) = 76.584-1.539*n)</t>
   </si>
 </sst>
 </file>
@@ -158,6 +204,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>265271</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67CCF84-85E1-6BA3-CB72-753729D68B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9685229" y="0"/>
+          <a:ext cx="3907571" cy="3466536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157614</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA75AE65-0FD7-0D1A-485A-4D2A6291855F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3115235"/>
+          <a:ext cx="18057143" cy="7523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -501,25 +640,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00D701B-954A-4BC2-BE98-11F09663CC7D}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>73.3</v>
+      </c>
+      <c r="C2" s="1">
+        <f>76.584-1.539*ROW(C1)</f>
+        <v>75.045000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>73.3</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C13" si="0">76.584-1.539*ROW(C2)</f>
+        <v>73.506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>73.3</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>71.966999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>68.2</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>70.427999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>68.2</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>68.88900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>68.2</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>67.350000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>68.2</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>65.811000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>68.2</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>64.272000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>60.6</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>62.733000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>60.6</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>61.194000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>59.6</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>59.655000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>59.6</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>58.116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204A9E48-B95F-40DA-A01A-2178373DAAAF}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -576,7 +891,7 @@
         <v>0.85483653728612607</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -604,7 +919,7 @@
         <v>0.84983653728612618</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -632,7 +947,7 @@
         <v>0.83883653728612606</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -660,7 +975,7 @@
         <v>0.83183653728612605</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -688,7 +1003,7 @@
         <v>0.81683653728612593</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -703,7 +1018,7 @@
         <v>0.79388448471121176</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>17</v>
       </c>
@@ -714,7 +1029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -737,7 +1052,7 @@
         <v>0.85483653728612607</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G11">
         <f t="shared" ref="G11:G14" si="5">B3</f>
         <v>0.89600000000000002</v>
@@ -751,7 +1066,7 @@
         <v>0.84983653728612618</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G12">
         <f t="shared" si="5"/>
         <v>0.88500000000000001</v>
@@ -765,7 +1080,7 @@
         <v>0.83883653728612606</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G13">
         <f t="shared" si="5"/>
         <v>0.878</v>
@@ -779,7 +1094,7 @@
         <v>0.83183653728612605</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G14">
         <f t="shared" si="5"/>
         <v>0.86299999999999999</v>
